--- a/backend/node/data/demo.xlsx
+++ b/backend/node/data/demo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>user</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>asu@gmail.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ed9c139d8f537c8b631ccc0258c9b570a9fdf723329871a1560c90ba0c95d439</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>user</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/node/data/demo.xlsx
+++ b/backend/node/data/demo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,9 +444,24 @@
         <v>user</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>bayubangsat@gmail.com</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ÃÐ\_x001b_­9¬Áß	Ý¿Ô:ÊD=~v_x0002_àUäåoudÒhf^èq zÈ_x0015_\Ýf_x0002_§æ-KÒ_x000d_Ã¤ÃM××Ë_x001f_ïøi_x0007_G:Ý²?¨åIÕcÅ_x001b__x0001_=¾ªjI§Ü%âÖxãáIÜ\_x000d_¬0N_e_x001f_To¤_x0011_®_x001b_ÒE±Gæ! HÃv-1ñmñ_x001d_­_x000f__x0005_»æ ¹SÔu#ÖB ¬3ø_x0014_+Ub_x001b_&amp;J¢AÔÂõ_x0001_¸î_x000d__x0011_FS_x001e_+xSRï_x0008_Eß_x0000__x001b__x0002__x0007_£N|_x000d_úô_x0003__x0018_§m_xPÅ5oôiC_x0002__x000d_r»ÙßÓ¯[_x001f_ô,_1YVæ_x0014_±A¨`×§r1Ð_x000f__x000f_WôggÊï¼D¤ië¾n_x0016_À¬¶ày_x0012_ÎKÙ¿»o</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>user</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>